--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_nuclear.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_nuclear.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34406D5F-534E-D645-B7FA-28D6C7A21F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9367FE8-61E9-C842-947B-2407900813DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="68">
   <si>
     <t>Name:</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -652,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -829,19 +835,18 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -851,7 +856,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -859,9 +864,10 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -871,13 +877,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>45</v>
@@ -891,15 +897,17 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="2"/>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -909,13 +917,13 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -927,19 +935,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>0.81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
+      <c r="H15" t="s">
+        <v>44</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -951,20 +953,21 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0.08</v>
+        <v>0.81</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -973,29 +976,20 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>22298</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
+        <v>0.08</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1012,10 +1006,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
-        <v>21654</v>
+        <v>22298</v>
       </c>
       <c r="H18" t="s">
         <v>52</v>
@@ -1044,10 +1038,10 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>22121</v>
+        <v>21654</v>
       </c>
       <c r="H19" t="s">
         <v>52</v>
@@ -1076,10 +1070,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>22029</v>
+        <v>22121</v>
       </c>
       <c r="H20" t="s">
         <v>52</v>
@@ -1108,10 +1102,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>22984</v>
+        <v>22029</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -1140,10 +1134,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>23486</v>
+        <v>22984</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1172,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>23719</v>
+        <v>23486</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1204,10 +1198,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>23971</v>
+        <v>23719</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1236,10 +1230,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>24368</v>
+        <v>23971</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -1268,10 +1262,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>23523</v>
+        <v>24368</v>
       </c>
       <c r="H26" t="s">
         <v>52</v>
@@ -1300,10 +1294,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>24949</v>
+        <v>23523</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -1332,10 +1326,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>25293</v>
+        <v>24949</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
@@ -1364,10 +1358,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>25692</v>
+        <v>25293</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
@@ -1396,10 +1390,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>25931</v>
+        <v>25692</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -1428,10 +1422,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>25432</v>
+        <v>25931</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -1460,10 +1454,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>22020</v>
+        <v>25432</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -1492,10 +1486,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>26244</v>
+        <v>22020</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -1524,10 +1518,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>26344</v>
+        <v>26244</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -1556,10 +1550,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>26132</v>
+        <v>26344</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -1588,10 +1582,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>26119</v>
+        <v>26132</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -1620,10 +1614,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>25205</v>
+        <v>26119</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -1652,10 +1646,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>25560</v>
+        <v>25205</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -1684,10 +1678,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>24345</v>
+        <v>25560</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -1716,10 +1710,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>24871</v>
+        <v>24345</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -1748,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>26370</v>
+        <v>24871</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -1780,10 +1774,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>22095</v>
+        <v>26370</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -1812,10 +1806,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>20235</v>
+        <v>22095</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -1844,10 +1838,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>19499</v>
+        <v>20235</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -1876,10 +1870,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>24414</v>
+        <v>19499</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -1908,10 +1902,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>25280</v>
+        <v>24414</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -1934,25 +1928,28 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>2950</v>
+        <v>25280</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="L47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1969,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>2950</v>
@@ -1998,7 +1995,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>2950</v>
@@ -2027,10 +2024,10 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
-        <v>2985</v>
+        <v>2950</v>
       </c>
       <c r="H50" t="s">
         <v>55</v>
@@ -2056,7 +2053,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>2985</v>
@@ -2085,10 +2082,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
-        <v>3055</v>
+        <v>2985</v>
       </c>
       <c r="H52" t="s">
         <v>55</v>
@@ -2114,10 +2111,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>3077</v>
+        <v>3055</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -2143,7 +2140,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
         <v>3077</v>
@@ -2172,10 +2169,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>3127</v>
+        <v>3077</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -2201,10 +2198,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
-        <v>3162</v>
+        <v>3127</v>
       </c>
       <c r="H56" t="s">
         <v>55</v>
@@ -2230,10 +2227,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
-        <v>3200</v>
+        <v>3162</v>
       </c>
       <c r="H57" t="s">
         <v>55</v>
@@ -2259,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
         <v>3200</v>
@@ -2288,10 +2285,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -2317,7 +2314,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
         <v>3220</v>
@@ -2346,7 +2343,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
         <v>3220</v>
@@ -2375,7 +2372,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
         <v>3220</v>
@@ -2404,7 +2401,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
         <v>3220</v>
@@ -2433,7 +2430,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>3220</v>
@@ -2462,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
         <v>3220</v>
@@ -2491,10 +2488,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
-        <v>3238</v>
+        <v>3220</v>
       </c>
       <c r="H66" t="s">
         <v>55</v>
@@ -2520,10 +2517,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="H67" t="s">
         <v>55</v>
@@ -2549,10 +2546,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>3278</v>
+        <v>3253</v>
       </c>
       <c r="H68" t="s">
         <v>55</v>
@@ -2578,7 +2575,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
         <v>3278</v>
@@ -2607,10 +2604,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>3308</v>
+        <v>3278</v>
       </c>
       <c r="H70" t="s">
         <v>55</v>
@@ -2636,10 +2633,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
-        <v>3333</v>
+        <v>3308</v>
       </c>
       <c r="H71" t="s">
         <v>55</v>
@@ -2665,7 +2662,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
         <v>3333</v>
@@ -2694,7 +2691,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
         <v>3333</v>
@@ -2723,7 +2720,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
         <v>3333</v>
@@ -2752,7 +2749,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
         <v>3333</v>
@@ -2781,7 +2778,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
         <v>3333</v>
@@ -2804,16 +2801,16 @@
         <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="H77" t="s">
         <v>55</v>
@@ -2839,7 +2836,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2868,7 +2865,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2897,10 +2894,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -2926,10 +2923,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
         <v>55</v>
@@ -2955,10 +2952,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
         <v>55</v>
@@ -2984,10 +2981,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="H83" t="s">
         <v>55</v>
@@ -3013,10 +3010,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
         <v>55</v>
@@ -3042,10 +3039,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>55</v>
@@ -3071,10 +3068,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
         <v>55</v>
@@ -3100,10 +3097,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H87" t="s">
         <v>55</v>
@@ -3129,10 +3126,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -3158,10 +3155,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -3187,10 +3184,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -3216,7 +3213,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3245,7 +3242,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3274,7 +3271,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3303,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3332,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3361,10 +3358,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>55</v>
@@ -3390,10 +3387,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
         <v>55</v>
@@ -3419,10 +3416,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -3448,10 +3445,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -3477,10 +3474,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -3506,10 +3503,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3535,10 +3532,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
         <v>55</v>
@@ -3564,7 +3561,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3593,7 +3590,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3622,7 +3619,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3651,7 +3648,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3674,13 +3671,13 @@
         <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3709,7 +3706,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3738,7 +3735,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3767,7 +3764,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3796,7 +3793,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3825,7 +3822,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3854,7 +3851,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3883,7 +3880,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3912,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3941,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3970,7 +3967,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3999,7 +3996,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4028,7 +4025,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4057,7 +4054,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4086,7 +4083,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4115,7 +4112,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4144,7 +4141,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4173,7 +4170,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4202,7 +4199,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4231,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4260,7 +4257,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4289,7 +4286,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4318,7 +4315,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4347,7 +4344,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4376,7 +4373,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4405,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4434,7 +4431,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4463,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4492,7 +4489,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4521,7 +4518,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4544,16 +4541,25 @@
         <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>55</v>
       </c>
       <c r="I137" t="s">
         <v>45</v>
+      </c>
+      <c r="J137" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -4570,7 +4576,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>45</v>
@@ -4590,7 +4596,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>45</v>
@@ -4610,7 +4616,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
@@ -4630,7 +4636,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4650,7 +4656,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -4670,7 +4676,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -4690,7 +4696,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -4710,7 +4716,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -4730,7 +4736,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -4750,7 +4756,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -4770,7 +4776,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -4790,7 +4796,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -4810,7 +4816,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -4830,7 +4836,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -4850,7 +4856,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -4870,7 +4876,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -4890,7 +4896,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -4910,7 +4916,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -4930,7 +4936,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -4950,7 +4956,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -4970,7 +4976,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -4990,7 +4996,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5010,7 +5016,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5030,7 +5036,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5050,7 +5056,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5070,7 +5076,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5090,7 +5096,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5110,22 +5116,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>120</v>
-      </c>
-      <c r="H165" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
-      </c>
-      <c r="J165" t="s">
-        <v>58</v>
-      </c>
-      <c r="L165" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5142,10 +5136,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>120</v>
+      </c>
+      <c r="H166" t="s">
+        <v>57</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
+      </c>
+      <c r="J166" t="s">
+        <v>58</v>
+      </c>
+      <c r="L166" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5156,13 +5162,13 @@
         <v>42</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
@@ -5182,7 +5188,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
@@ -5202,7 +5208,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
@@ -5222,7 +5228,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
@@ -5242,7 +5248,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
@@ -5262,7 +5268,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
@@ -5282,7 +5288,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
@@ -5302,7 +5308,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5322,7 +5328,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5342,7 +5348,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5362,7 +5368,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5382,7 +5388,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5402,7 +5408,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5422,7 +5428,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5442,7 +5448,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5462,7 +5468,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5482,7 +5488,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5502,7 +5508,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5522,7 +5528,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5542,7 +5548,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -5562,7 +5568,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
@@ -5582,7 +5588,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
@@ -5602,7 +5608,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>45</v>
@@ -5622,7 +5628,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>45</v>
@@ -5642,7 +5648,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>45</v>
@@ -5662,7 +5668,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I192" t="s">
         <v>45</v>
@@ -5682,7 +5688,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>45</v>
@@ -5702,7 +5708,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>45</v>
@@ -5722,22 +5728,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
-      </c>
-      <c r="G195">
-        <v>5300</v>
-      </c>
-      <c r="H195" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>45</v>
-      </c>
-      <c r="J195" t="s">
-        <v>58</v>
-      </c>
-      <c r="L195" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -5754,10 +5748,22 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G196">
+        <v>5300</v>
+      </c>
+      <c r="H196" t="s">
+        <v>57</v>
       </c>
       <c r="I196" t="s">
         <v>45</v>
+      </c>
+      <c r="J196" t="s">
+        <v>58</v>
+      </c>
+      <c r="L196" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5768,13 +5774,13 @@
         <v>42</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -5794,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
@@ -5814,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
@@ -5834,7 +5840,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -5854,7 +5860,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -5874,7 +5880,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -5894,7 +5900,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -5914,7 +5920,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -5934,7 +5940,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -5954,7 +5960,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -5974,7 +5980,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -5994,7 +6000,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6014,7 +6020,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6034,7 +6040,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6054,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6074,7 +6080,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6094,7 +6100,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6114,7 +6120,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6134,7 +6140,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6154,7 +6160,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6174,7 +6180,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6194,7 +6200,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6214,7 +6220,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6234,7 +6240,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6254,7 +6260,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6274,7 +6280,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6294,7 +6300,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6314,7 +6320,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6334,22 +6340,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>6.4</v>
-      </c>
-      <c r="H225" t="s">
-        <v>60</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
-      </c>
-      <c r="J225" t="s">
-        <v>58</v>
-      </c>
-      <c r="L225" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6366,10 +6360,22 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>6.4</v>
+      </c>
+      <c r="H226" t="s">
+        <v>60</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
+      </c>
+      <c r="J226" t="s">
+        <v>58</v>
+      </c>
+      <c r="L226" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6380,28 +6386,16 @@
         <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
-      </c>
-      <c r="J227" t="s">
-        <v>56</v>
-      </c>
-      <c r="L227" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6418,7 +6412,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6450,7 +6444,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6482,7 +6476,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6514,7 +6508,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6546,7 +6540,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6578,7 +6572,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6610,7 +6604,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6642,7 +6636,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6674,7 +6668,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6706,7 +6700,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6738,7 +6732,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6770,7 +6764,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6802,7 +6796,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6834,7 +6828,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6866,7 +6860,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6898,7 +6892,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6930,7 +6924,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6962,7 +6956,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6994,7 +6988,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7026,7 +7020,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7058,7 +7052,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7090,7 +7084,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7122,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7154,7 +7148,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7186,7 +7180,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7218,7 +7212,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7250,7 +7244,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7282,7 +7276,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7314,7 +7308,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7332,7 +7326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7340,25 +7334,31 @@
         <v>42</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>55</v>
       </c>
       <c r="I257" t="s">
         <v>45</v>
       </c>
       <c r="J257" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="L257" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7372,16 +7372,19 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I258" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J258" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7404,7 +7407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -7427,7 +7430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -7450,7 +7453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -7473,7 +7476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -7496,7 +7499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -7519,7 +7522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -7542,7 +7545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -7565,7 +7568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7579,7 +7582,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -7588,7 +7591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -7611,7 +7614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -7634,7 +7637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -7657,7 +7660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -7680,7 +7683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -7717,7 +7720,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -7740,7 +7743,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -7763,7 +7766,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -7786,7 +7789,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -7809,7 +7812,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -7832,7 +7835,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -7855,7 +7858,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -7878,7 +7881,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -7901,7 +7904,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -7924,7 +7927,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -7947,7 +7950,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -7970,7 +7973,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -7993,7 +7996,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8016,7 +8019,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8033,22 +8036,19 @@
         <v>42</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="s">
         <v>45</v>
-      </c>
-      <c r="J287" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8065,10 +8065,10 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>45</v>
@@ -8091,7 +8091,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.7</v>
@@ -8117,7 +8117,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.7</v>
@@ -8143,7 +8143,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.7</v>
@@ -8169,7 +8169,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.7</v>
@@ -8195,7 +8195,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.7</v>
@@ -8221,7 +8221,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.7</v>
@@ -8247,7 +8247,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.7</v>
@@ -8273,7 +8273,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.7</v>
@@ -8299,7 +8299,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.7</v>
@@ -8325,7 +8325,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.7</v>
@@ -8351,7 +8351,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.7</v>
@@ -8377,7 +8377,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.7</v>
@@ -8403,7 +8403,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.7</v>
@@ -8429,7 +8429,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.7</v>
@@ -8455,7 +8455,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.7</v>
@@ -8481,7 +8481,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.7</v>
@@ -8507,7 +8507,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.7</v>
@@ -8533,7 +8533,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.7</v>
@@ -8559,7 +8559,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.7</v>
@@ -8585,7 +8585,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.7</v>
@@ -8611,7 +8611,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.7</v>
@@ -8637,7 +8637,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.7</v>
@@ -8663,7 +8663,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.7</v>
@@ -8689,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.7</v>
@@ -8715,7 +8715,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.7</v>
@@ -8741,7 +8741,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.7</v>
@@ -8767,7 +8767,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.7</v>
@@ -8793,7 +8793,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.7</v>
@@ -8805,11 +8805,37 @@
         <v>62</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>42</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.7</v>
+      </c>
+      <c r="I317" t="s">
+        <v>45</v>
+      </c>
+      <c r="J317" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_nuclear.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_nuclear.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9367FE8-61E9-C842-947B-2407900813DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C207200D-56E6-8E4D-B3A8-54EB03873D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="71">
   <si>
     <t>Name:</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -658,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,10 +774,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -786,16 +795,16 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -807,26 +816,18 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -836,17 +837,18 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -855,8 +857,8 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -865,9 +867,17 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -876,17 +886,17 @@
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -897,17 +907,18 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -917,15 +928,17 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -935,15 +948,17 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="2"/>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -953,19 +968,13 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="G16">
-        <v>0.81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
+      <c r="H16" t="s">
+        <v>49</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -977,20 +986,15 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>0.08</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -999,30 +1003,22 @@
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>22298</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
+        <v>0.81</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1031,29 +1027,20 @@
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>21654</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1070,10 +1057,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>22121</v>
+        <v>22298</v>
       </c>
       <c r="H20" t="s">
         <v>52</v>
@@ -1102,10 +1089,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>22029</v>
+        <v>21654</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -1134,10 +1121,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>22984</v>
+        <v>22121</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1166,10 +1153,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>23486</v>
+        <v>22029</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1198,10 +1185,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>23719</v>
+        <v>22984</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1230,10 +1217,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>23971</v>
+        <v>23486</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -1262,10 +1249,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>24368</v>
+        <v>23719</v>
       </c>
       <c r="H26" t="s">
         <v>52</v>
@@ -1294,10 +1281,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>23523</v>
+        <v>23971</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -1326,10 +1313,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>24949</v>
+        <v>24368</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
@@ -1358,10 +1345,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>25293</v>
+        <v>23523</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
@@ -1390,10 +1377,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>25692</v>
+        <v>24949</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -1422,10 +1409,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>25931</v>
+        <v>25293</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -1454,10 +1441,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>25432</v>
+        <v>25692</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -1486,10 +1473,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>22020</v>
+        <v>25931</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -1518,10 +1505,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>26244</v>
+        <v>25432</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -1550,10 +1537,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>26344</v>
+        <v>22020</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -1582,10 +1569,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>26132</v>
+        <v>26244</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -1614,10 +1601,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>26119</v>
+        <v>26344</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -1646,10 +1633,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>25205</v>
+        <v>26132</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -1678,10 +1665,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>25560</v>
+        <v>26119</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -1710,10 +1697,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>24345</v>
+        <v>25205</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -1742,10 +1729,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>24871</v>
+        <v>25560</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -1774,10 +1761,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>26370</v>
+        <v>24345</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -1806,10 +1793,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>22095</v>
+        <v>24871</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -1838,10 +1825,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>20235</v>
+        <v>26370</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -1870,10 +1857,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>19499</v>
+        <v>22095</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -1902,10 +1889,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>24414</v>
+        <v>20235</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -1934,10 +1921,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>25280</v>
+        <v>19499</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
@@ -1960,28 +1947,31 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>2950</v>
+        <v>24414</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="L48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1989,28 +1979,31 @@
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>2950</v>
+        <v>25280</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="L49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2017,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>2950</v>
@@ -2039,7 +2032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2053,10 +2046,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
-        <v>2985</v>
+        <v>2950</v>
       </c>
       <c r="H51" t="s">
         <v>55</v>
@@ -2068,7 +2061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2082,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>2985</v>
+        <v>2950</v>
       </c>
       <c r="H52" t="s">
         <v>55</v>
@@ -2097,7 +2090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2111,10 +2104,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>3055</v>
+        <v>2985</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -2126,7 +2119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2140,10 +2133,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>3077</v>
+        <v>2985</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
@@ -2155,7 +2148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2169,10 +2162,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>3077</v>
+        <v>3055</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -2184,7 +2177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2198,10 +2191,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>3127</v>
+        <v>3077</v>
       </c>
       <c r="H56" t="s">
         <v>55</v>
@@ -2213,7 +2206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2227,10 +2220,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>3162</v>
+        <v>3077</v>
       </c>
       <c r="H57" t="s">
         <v>55</v>
@@ -2242,7 +2235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2256,10 +2249,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>3200</v>
+        <v>3127</v>
       </c>
       <c r="H58" t="s">
         <v>55</v>
@@ -2271,7 +2264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2285,10 +2278,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>3200</v>
+        <v>3162</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -2300,7 +2293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2314,10 +2307,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="H60" t="s">
         <v>55</v>
@@ -2329,7 +2322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2343,10 +2336,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="H61" t="s">
         <v>55</v>
@@ -2358,7 +2351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2372,7 +2365,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
         <v>3220</v>
@@ -2387,7 +2380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2401,7 +2394,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
         <v>3220</v>
@@ -2416,7 +2409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2423,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
         <v>3220</v>
@@ -2459,7 +2452,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
         <v>3220</v>
@@ -2488,7 +2481,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
         <v>3220</v>
@@ -2517,10 +2510,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>3238</v>
+        <v>3220</v>
       </c>
       <c r="H67" t="s">
         <v>55</v>
@@ -2546,10 +2539,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>3253</v>
+        <v>3220</v>
       </c>
       <c r="H68" t="s">
         <v>55</v>
@@ -2575,10 +2568,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>3278</v>
+        <v>3238</v>
       </c>
       <c r="H69" t="s">
         <v>55</v>
@@ -2604,10 +2597,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>3278</v>
+        <v>3253</v>
       </c>
       <c r="H70" t="s">
         <v>55</v>
@@ -2633,10 +2626,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>3308</v>
+        <v>3278</v>
       </c>
       <c r="H71" t="s">
         <v>55</v>
@@ -2662,10 +2655,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>3333</v>
+        <v>3278</v>
       </c>
       <c r="H72" t="s">
         <v>55</v>
@@ -2691,10 +2684,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>3333</v>
+        <v>3308</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
@@ -2720,7 +2713,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
         <v>3333</v>
@@ -2749,7 +2742,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
         <v>3333</v>
@@ -2778,7 +2771,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
         <v>3333</v>
@@ -2807,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
         <v>3333</v>
@@ -2830,16 +2823,16 @@
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="H78" t="s">
         <v>55</v>
@@ -2859,16 +2852,16 @@
         <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="H79" t="s">
         <v>55</v>
@@ -2894,7 +2887,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2923,10 +2916,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>55</v>
@@ -2952,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2981,10 +2974,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
         <v>55</v>
@@ -3010,10 +3003,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>55</v>
@@ -3039,10 +3032,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
         <v>55</v>
@@ -3068,10 +3061,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
         <v>55</v>
@@ -3097,10 +3090,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>55</v>
@@ -3126,10 +3119,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -3155,10 +3148,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -3184,10 +3177,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -3213,7 +3206,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3242,10 +3235,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -3271,7 +3264,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3300,7 +3293,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3329,7 +3322,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3358,7 +3351,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3387,10 +3380,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>55</v>
@@ -3416,10 +3409,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -3445,10 +3438,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -3474,10 +3467,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -3503,10 +3496,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3532,10 +3525,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>55</v>
@@ -3561,10 +3554,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H103" t="s">
         <v>55</v>
@@ -3590,10 +3583,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
         <v>55</v>
@@ -3619,7 +3612,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3648,7 +3641,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3677,7 +3670,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3700,13 +3693,13 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3729,13 +3722,13 @@
         <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3764,7 +3757,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3793,7 +3786,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3822,7 +3815,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3851,7 +3844,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3880,7 +3873,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3909,7 +3902,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3938,7 +3931,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3967,7 +3960,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3996,7 +3989,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4025,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4054,7 +4047,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4083,7 +4076,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4112,7 +4105,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4141,7 +4134,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4170,7 +4163,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4199,7 +4192,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4228,7 +4221,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4257,7 +4250,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4286,7 +4279,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4315,7 +4308,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4344,7 +4337,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4373,7 +4366,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4402,7 +4395,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4431,7 +4424,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4460,7 +4453,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4489,7 +4482,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4518,7 +4511,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4547,7 +4540,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4570,16 +4563,25 @@
         <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>55</v>
       </c>
       <c r="I138" t="s">
         <v>45</v>
+      </c>
+      <c r="J138" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -4590,16 +4592,25 @@
         <v>42</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>55</v>
       </c>
       <c r="I139" t="s">
         <v>45</v>
+      </c>
+      <c r="J139" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -4616,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
@@ -4636,7 +4647,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4656,7 +4667,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -4676,7 +4687,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -4696,7 +4707,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -4716,7 +4727,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -4736,7 +4747,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -4756,7 +4767,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -4776,7 +4787,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -4796,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -4816,7 +4827,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -4836,7 +4847,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -4856,7 +4867,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -4876,7 +4887,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -4896,7 +4907,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -4916,7 +4927,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -4936,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -4956,7 +4967,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -4976,7 +4987,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -4996,7 +5007,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5016,7 +5027,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5036,7 +5047,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5056,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5076,7 +5087,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5096,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5116,7 +5127,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
@@ -5136,22 +5147,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>120</v>
-      </c>
-      <c r="H166" t="s">
-        <v>57</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
-      </c>
-      <c r="J166" t="s">
-        <v>58</v>
-      </c>
-      <c r="L166" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5168,7 +5167,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
@@ -5182,16 +5181,28 @@
         <v>42</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G168">
+        <v>120</v>
+      </c>
+      <c r="H168" t="s">
+        <v>57</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
+      </c>
+      <c r="J168" t="s">
+        <v>58</v>
+      </c>
+      <c r="L168" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5202,13 +5213,13 @@
         <v>42</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
@@ -5228,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
@@ -5248,7 +5259,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
@@ -5268,7 +5279,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
@@ -5288,7 +5299,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
@@ -5308,7 +5319,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5328,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5348,7 +5359,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5368,7 +5379,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5388,7 +5399,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5408,7 +5419,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5428,7 +5439,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5448,7 +5459,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5468,7 +5479,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5488,7 +5499,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5508,7 +5519,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5528,7 +5539,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5548,7 +5559,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -5568,7 +5579,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
@@ -5588,7 +5599,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
@@ -5608,7 +5619,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>45</v>
@@ -5628,7 +5639,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>45</v>
@@ -5648,7 +5659,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>45</v>
@@ -5668,7 +5679,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>45</v>
@@ -5688,7 +5699,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>45</v>
@@ -5708,7 +5719,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I194" t="s">
         <v>45</v>
@@ -5728,7 +5739,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>45</v>
@@ -5748,22 +5759,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
-      </c>
-      <c r="G196">
-        <v>5300</v>
-      </c>
-      <c r="H196" t="s">
-        <v>57</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>45</v>
-      </c>
-      <c r="J196" t="s">
-        <v>58</v>
-      </c>
-      <c r="L196" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5780,7 +5779,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -5794,16 +5793,28 @@
         <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>5300</v>
+      </c>
+      <c r="H198" t="s">
+        <v>57</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
+      </c>
+      <c r="J198" t="s">
+        <v>58</v>
+      </c>
+      <c r="L198" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5814,13 +5825,13 @@
         <v>42</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
@@ -5840,7 +5851,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -5860,7 +5871,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -5880,7 +5891,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -5900,7 +5911,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -5920,7 +5931,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -5940,7 +5951,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -5960,7 +5971,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -5980,7 +5991,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -6000,7 +6011,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6020,7 +6031,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6040,7 +6051,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6060,7 +6071,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6080,7 +6091,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6100,7 +6111,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6120,7 +6131,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6140,7 +6151,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6160,7 +6171,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6180,7 +6191,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6200,7 +6211,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6220,7 +6231,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6240,7 +6251,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6260,7 +6271,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6280,7 +6291,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6300,7 +6311,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6320,7 +6331,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6340,7 +6351,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
@@ -6360,22 +6371,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>6.4</v>
-      </c>
-      <c r="H226" t="s">
-        <v>60</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
-      </c>
-      <c r="J226" t="s">
-        <v>58</v>
-      </c>
-      <c r="L226" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6392,7 +6391,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
@@ -6406,28 +6405,28 @@
         <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="H228" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
       </c>
       <c r="J228" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L228" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6438,28 +6437,16 @@
         <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>45</v>
-      </c>
-      <c r="J229" t="s">
-        <v>56</v>
-      </c>
-      <c r="L229" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6476,7 +6463,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6508,7 +6495,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6540,7 +6527,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6572,7 +6559,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6604,7 +6591,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6636,7 +6623,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6668,7 +6655,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6700,7 +6687,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6732,7 +6719,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6764,7 +6751,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6796,7 +6783,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6828,7 +6815,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6860,7 +6847,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6892,7 +6879,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6924,7 +6911,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6956,7 +6943,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6988,7 +6975,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7020,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7052,7 +7039,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7084,7 +7071,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7116,7 +7103,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7148,7 +7135,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7180,7 +7167,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7212,7 +7199,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7244,7 +7231,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7276,7 +7263,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7308,7 +7295,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7340,7 +7327,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7366,22 +7353,28 @@
         <v>42</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>55</v>
       </c>
       <c r="I258" t="s">
         <v>45</v>
       </c>
       <c r="J258" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="L258" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7392,19 +7385,28 @@
         <v>42</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>55</v>
       </c>
       <c r="I259" t="s">
         <v>45</v>
+      </c>
+      <c r="J259" t="s">
+        <v>56</v>
+      </c>
+      <c r="L259" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7421,13 +7423,16 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I260" t="s">
         <v>45</v>
+      </c>
+      <c r="J260" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7444,7 +7449,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -7467,7 +7472,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -7490,7 +7495,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -7513,7 +7518,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -7536,7 +7541,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -7559,7 +7564,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -7582,7 +7587,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -7605,7 +7610,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -7628,7 +7633,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -7651,7 +7656,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -7674,7 +7679,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -7697,7 +7702,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -7706,7 +7711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -7720,7 +7725,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -7729,7 +7734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -7743,7 +7748,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -7752,7 +7757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>16</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -7775,7 +7780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -7789,7 +7794,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -7798,7 +7803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -7821,7 +7826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -7835,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -7844,7 +7849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -7858,7 +7863,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -7867,7 +7872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>16</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -7890,7 +7895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -7904,7 +7909,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -7913,7 +7918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>16</v>
       </c>
@@ -7927,7 +7932,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -7936,7 +7941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -7950,7 +7955,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -7959,7 +7964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -7973,7 +7978,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -7982,7 +7987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>16</v>
       </c>
@@ -7996,7 +8001,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8005,7 +8010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -8019,7 +8024,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8028,7 +8033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -8042,7 +8047,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -8051,7 +8056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -8059,22 +8064,19 @@
         <v>42</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="s">
         <v>45</v>
-      </c>
-      <c r="J288" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -8085,22 +8087,19 @@
         <v>42</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I289" t="s">
         <v>45</v>
-      </c>
-      <c r="J289" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
@@ -8117,10 +8116,10 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>45</v>
@@ -8143,7 +8142,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.7</v>
@@ -8169,7 +8168,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.7</v>
@@ -8195,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.7</v>
@@ -8221,7 +8220,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.7</v>
@@ -8247,7 +8246,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.7</v>
@@ -8273,7 +8272,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.7</v>
@@ -8299,7 +8298,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.7</v>
@@ -8325,7 +8324,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.7</v>
@@ -8351,7 +8350,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.7</v>
@@ -8377,7 +8376,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.7</v>
@@ -8403,7 +8402,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.7</v>
@@ -8429,7 +8428,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.7</v>
@@ -8455,7 +8454,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.7</v>
@@ -8481,7 +8480,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.7</v>
@@ -8507,7 +8506,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.7</v>
@@ -8533,7 +8532,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.7</v>
@@ -8559,7 +8558,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.7</v>
@@ -8585,7 +8584,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.7</v>
@@ -8611,7 +8610,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.7</v>
@@ -8637,7 +8636,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.7</v>
@@ -8663,7 +8662,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.7</v>
@@ -8689,7 +8688,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.7</v>
@@ -8715,7 +8714,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.7</v>
@@ -8741,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.7</v>
@@ -8767,7 +8766,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.7</v>
@@ -8793,7 +8792,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.7</v>
@@ -8819,7 +8818,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.7</v>
@@ -8831,11 +8830,63 @@
         <v>62</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>42</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.7</v>
+      </c>
+      <c r="I318" t="s">
+        <v>45</v>
+      </c>
+      <c r="J318" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>42</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.7</v>
+      </c>
+      <c r="I319" t="s">
+        <v>45</v>
+      </c>
+      <c r="J319" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_nuclear.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_nuclear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C207200D-56E6-8E4D-B3A8-54EB03873D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFCA1D-7F5C-D347-9A1C-CA3D10D0807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="72">
   <si>
     <t>Name:</t>
   </si>
@@ -236,9 +236,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,10 +777,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -795,10 +798,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -893,10 +896,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
